--- a/web/excel/customer/零担下单批量导入模板.xlsx
+++ b/web/excel/customer/零担下单批量导入模板.xlsx
@@ -161,9 +161,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -238,25 +238,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -268,10 +268,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
